--- a/output/fit_clients/fit_round_453.xlsx
+++ b/output/fit_clients/fit_round_453.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2155935709.331686</v>
+        <v>1679113048.132536</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09813223109042031</v>
+        <v>0.08041697090709604</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03517375660358778</v>
+        <v>0.04503319911619563</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1077967871.26629</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2111235674.006473</v>
+        <v>2449990066.692229</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1363529520556634</v>
+        <v>0.1499829243150606</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04313446882146252</v>
+        <v>0.05013012505263681</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1055617894.303045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3811035660.724552</v>
+        <v>4698154287.517417</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1606114451287356</v>
+        <v>0.13470146628545</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03321144648931088</v>
+        <v>0.02841791974734772</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>164</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1905517831.16728</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2630942875.96064</v>
+        <v>3818797563.431445</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08656269667897876</v>
+        <v>0.08442906688186255</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05009422194569535</v>
+        <v>0.03893108390083673</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>168</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1315471532.289835</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2334118167.632555</v>
+        <v>2169435279.17258</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1392322795006519</v>
+        <v>0.1361256314675431</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04796132475619603</v>
+        <v>0.03644951830600382</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1167059077.270915</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1974755419.602086</v>
+        <v>2669518138.207467</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07061234242636695</v>
+        <v>0.09577705464167406</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03425974610927068</v>
+        <v>0.03207648483436767</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>144</v>
-      </c>
-      <c r="J7" t="n">
-        <v>987377773.4609934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2973328931.521652</v>
+        <v>3869421177.549434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2145350056723192</v>
+        <v>0.2047914903240712</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03147241918741019</v>
+        <v>0.02231166463518436</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>145</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1486664520.569561</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1665891207.325263</v>
+        <v>2229694506.884109</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1196755478073045</v>
+        <v>0.1422008896072318</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03139724168834455</v>
+        <v>0.03272223508679316</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>832945676.6476109</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4615613645.218428</v>
+        <v>5278336047.476046</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1415206002215945</v>
+        <v>0.1335401470201313</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03322562759834256</v>
+        <v>0.04877841338015118</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>191</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2307806892.169111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4036354525.118899</v>
+        <v>2679874524.297135</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1583968339387805</v>
+        <v>0.1285239307497212</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04956097008147378</v>
+        <v>0.03046116228587825</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>188</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2018177277.770857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2764675115.664484</v>
+        <v>2542861959.339873</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1640229203581433</v>
+        <v>0.1758665806342972</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0371869744383551</v>
+        <v>0.05167415267331644</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>153</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1382337554.316808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4434734987.159811</v>
+        <v>3677233211.307539</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08243980773415399</v>
+        <v>0.07511456568291472</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02331698998848239</v>
+        <v>0.02242589275331009</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>152</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2217367526.44716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3064620349.960602</v>
+        <v>3320697143.887902</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1878868522368319</v>
+        <v>0.1703711740769697</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04173920029138681</v>
+        <v>0.03188104924983385</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>145</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1532310204.759966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1164039886.895164</v>
+        <v>1115539510.263034</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07602774725526201</v>
+        <v>0.07329119627717799</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03547845057775926</v>
+        <v>0.03036224813439075</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>582019952.7912164</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2551997873.092039</v>
+        <v>2626027428.191723</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1155581588260734</v>
+        <v>0.1031957915887906</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04507766108960477</v>
+        <v>0.03954074137448252</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1275998962.730959</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3929412681.964973</v>
+        <v>4098619492.92917</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1164312425349816</v>
+        <v>0.1460639637576844</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04039397023399098</v>
+        <v>0.03530978598293989</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1964706379.108723</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2457281259.685632</v>
+        <v>3408819447.262166</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1838356985271499</v>
+        <v>0.1846703814950023</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02702858917072909</v>
+        <v>0.03261368007329749</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>149</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1228640699.420749</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>895802659.8727858</v>
+        <v>1129962431.286154</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1837114734969441</v>
+        <v>0.1638812697518794</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0260298454350612</v>
+        <v>0.02083819226346396</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>447901333.8111449</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1831243832.425169</v>
+        <v>2740197622.46994</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1085482799005498</v>
+        <v>0.1281782183975861</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02028903337404538</v>
+        <v>0.02150488828118206</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>63</v>
-      </c>
-      <c r="J20" t="n">
-        <v>915621960.5643464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2495741588.169718</v>
+        <v>2577442289.260515</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09512965482029108</v>
+        <v>0.07880350690740442</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03268053811530724</v>
+        <v>0.04193132709514442</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>35</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1247870782.647891</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2799881344.068517</v>
+        <v>3377054410.995708</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08799177360543901</v>
+        <v>0.0972875623441454</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04492732315620389</v>
+        <v>0.04885251735814238</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>126</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1399940745.568419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1407012645.940778</v>
+        <v>1311284737.792584</v>
       </c>
       <c r="F23" t="n">
-        <v>0.152661412677253</v>
+        <v>0.1278836167879138</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03649852923425972</v>
+        <v>0.05482214025374671</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>703506324.6151488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3504973226.359464</v>
+        <v>3117154064.543114</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1332478505692622</v>
+        <v>0.1329526674087138</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03525795393084515</v>
+        <v>0.02941439388312397</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>133</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1752486614.468418</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>926219546.3254189</v>
+        <v>918079706.3387998</v>
       </c>
       <c r="F25" t="n">
-        <v>0.118488527813179</v>
+        <v>0.1078927689053663</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02462004186210175</v>
+        <v>0.02923342917142718</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>463109854.1364724</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1345431499.435737</v>
+        <v>908592066.2300705</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1241724891656711</v>
+        <v>0.08152071470499385</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03716821336759767</v>
+        <v>0.03104410527364944</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>672715806.3374069</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4047546203.058288</v>
+        <v>4024321701.614495</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1136213181508194</v>
+        <v>0.1025489880941615</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02359259775514078</v>
+        <v>0.01996009713261951</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2023773109.326983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3854746558.882812</v>
+        <v>3274863289.642399</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1469810520063086</v>
+        <v>0.1307535677720368</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0433566016438061</v>
+        <v>0.04920752809846395</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>146</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1927373364.868002</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5577763580.425767</v>
+        <v>5813653666.650726</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1263822470570566</v>
+        <v>0.118151233090009</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03418269161833068</v>
+        <v>0.04335884449524009</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>201</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2788881697.730337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2025926525.928731</v>
+        <v>1590377197.913498</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1398089251990035</v>
+        <v>0.1069466651878112</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03394867422417989</v>
+        <v>0.0397980669894988</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1012963303.380171</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1005126386.716702</v>
+        <v>1493931857.386365</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08200504376230389</v>
+        <v>0.102891569002528</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03517439186422385</v>
+        <v>0.03898620045795437</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>502563190.7155872</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1867397722.907346</v>
+        <v>1291163860.947505</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09681519781283783</v>
+        <v>0.1192349944389869</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03822432953403331</v>
+        <v>0.03131565827344369</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>933699005.9272332</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2390267282.737357</v>
+        <v>2595453706.293588</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1419920014825629</v>
+        <v>0.1512502986462053</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04473777226249766</v>
+        <v>0.0520618358887433</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>139</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1195133688.932459</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1525211078.825213</v>
+        <v>1079069800.941262</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08568807798672798</v>
+        <v>0.093718077101331</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02121887626026756</v>
+        <v>0.02256778056510308</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>762605491.198357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>944660207.7393816</v>
+        <v>1255302525.384776</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07133593627601355</v>
+        <v>0.08364034162955801</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04372089137391344</v>
+        <v>0.03129512194165495</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>472330134.6151627</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2625928471.367048</v>
+        <v>2930959843.840041</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1555453465300299</v>
+        <v>0.1540739500982234</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01800433390710697</v>
+        <v>0.01947901789550492</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1312964247.606742</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2031147305.757415</v>
+        <v>2599741662.94255</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0841947912449976</v>
+        <v>0.1056820225460347</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02589185791491025</v>
+        <v>0.02631712685324988</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>121</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1015573684.458781</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1591306799.074755</v>
+        <v>1625253416.246346</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1026031572680191</v>
+        <v>0.1169137555659717</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03341365225055654</v>
+        <v>0.03693163683788442</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>795653435.9133208</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1474979073.223938</v>
+        <v>1621166462.879601</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1812838099445574</v>
+        <v>0.1637043957667948</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02092277988171205</v>
+        <v>0.02677023472414822</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>737489610.8572142</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1231585919.684735</v>
+        <v>1234505518.23043</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1203268431446707</v>
+        <v>0.1223959984820778</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05473361413179235</v>
+        <v>0.04801423028179006</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>615792993.2466379</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2121530730.729002</v>
+        <v>2307243812.195667</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1337765257068687</v>
+        <v>0.1071374441846351</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04715106567630038</v>
+        <v>0.0309223982062946</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1060765427.678272</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3506804927.767097</v>
+        <v>4192650412.740264</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09882792533876805</v>
+        <v>0.1036915362743831</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02913366191620672</v>
+        <v>0.04301580829320537</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1753402459.250804</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2055119542.895601</v>
+        <v>2946261142.073351</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1565412586588679</v>
+        <v>0.1329782297911231</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02231856423691796</v>
+        <v>0.02572521341182495</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>158</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1027559864.874569</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2097109147.089201</v>
+        <v>1558465896.934884</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06359415549433461</v>
+        <v>0.09189803654846782</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02955546316629493</v>
+        <v>0.02660899680190389</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1048554699.266678</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1822960743.8591</v>
+        <v>2346187123.4031</v>
       </c>
       <c r="F45" t="n">
-        <v>0.143647146048356</v>
+        <v>0.1867226145793267</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05565935089747417</v>
+        <v>0.03402141138521692</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>911480344.958563</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4843345350.961967</v>
+        <v>4170700771.670319</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1184154349143192</v>
+        <v>0.1662104099673903</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04545640734609607</v>
+        <v>0.04713064723378024</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>161</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2421672693.305488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5169407050.535028</v>
+        <v>3683600563.366198</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1804415931764063</v>
+        <v>0.1640355974869856</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05927660475759591</v>
+        <v>0.04324445062268432</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2584703590.676105</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3885817203.994825</v>
+        <v>3988985431.46389</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1102921396740654</v>
+        <v>0.09788992373759453</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02999058830310252</v>
+        <v>0.03536715212502025</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>148</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1942908642.999722</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1680806072.196632</v>
+        <v>1285969258.989523</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1611793500179215</v>
+        <v>0.1505723411140319</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02734004191195519</v>
+        <v>0.04080247379840535</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>840403040.0213341</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3668217655.073808</v>
+        <v>3362743037.870787</v>
       </c>
       <c r="F50" t="n">
-        <v>0.141081506572126</v>
+        <v>0.1450602526132757</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04401722031799268</v>
+        <v>0.03540100277226459</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>155</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1834108839.86924</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>979451601.7846079</v>
+        <v>1224614055.50656</v>
       </c>
       <c r="F51" t="n">
-        <v>0.161427895292655</v>
+        <v>0.1360618482449731</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0341977029124589</v>
+        <v>0.05440944538176424</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>489725888.198059</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4330438050.443702</v>
+        <v>3211781162.111998</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0872779420092251</v>
+        <v>0.09831445384885909</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0430209949363213</v>
+        <v>0.05414971276112523</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>187</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2165219062.271837</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3523771352.449306</v>
+        <v>2805635968.577299</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1865995084310918</v>
+        <v>0.1605124943234795</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0275453934967972</v>
+        <v>0.02175445019975176</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>130</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1761885672.517001</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3699288520.763515</v>
+        <v>3058157137.836185</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1205478782796366</v>
+        <v>0.1375667805759805</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04093244766064389</v>
+        <v>0.05103158444360421</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>147</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1849644300.871285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4486344044.226394</v>
+        <v>4332427377.731293</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2232850098977872</v>
+        <v>0.1828655429001448</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02068501848527019</v>
+        <v>0.02998362185880446</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>121</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2243172018.504739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1269538965.565918</v>
+        <v>1864408215.061676</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1132964026964768</v>
+        <v>0.110859630325358</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05272803049078485</v>
+        <v>0.04826642155215463</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>634769559.1814104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4356159974.720281</v>
+        <v>3486183780.354677</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1476525317302932</v>
+        <v>0.1517210246522584</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01678431161199439</v>
+        <v>0.01972844723238398</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>144</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2178080105.650944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1428734556.041006</v>
+        <v>1193388064.568536</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1285915359885342</v>
+        <v>0.1891508889658587</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02956775124996792</v>
+        <v>0.03659147378306959</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>714367315.6884532</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4874482772.845661</v>
+        <v>3276962198.863053</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1292582120983192</v>
+        <v>0.09669354521774091</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04102796403192068</v>
+        <v>0.0444215994120048</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2437241320.191928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3504985876.755136</v>
+        <v>3128206701.378062</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1745130435329113</v>
+        <v>0.1475351609420681</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0334229623029314</v>
+        <v>0.02093328098193666</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1752493061.718019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3222553891.715843</v>
+        <v>2834329531.457366</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1564029581467857</v>
+        <v>0.141430332042124</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02673004501322135</v>
+        <v>0.03088797390487458</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>156</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1611276905.353618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1709720464.512887</v>
+        <v>2032484440.483762</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1812868983357638</v>
+        <v>0.1465442114049865</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03885149637174707</v>
+        <v>0.03513284653400386</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>854860246.8084313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4706825809.889641</v>
+        <v>5542490456.295624</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08807856769355447</v>
+        <v>0.09695413272079732</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0403784043430897</v>
+        <v>0.03731633011988288</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2353412935.798174</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4869746569.157094</v>
+        <v>4958350569.659904</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1248438186157195</v>
+        <v>0.1174269099348568</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0346803608905673</v>
+        <v>0.02865755789891385</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>141</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2434873381.624532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5513252056.157324</v>
+        <v>3949324151.718408</v>
       </c>
       <c r="F65" t="n">
-        <v>0.173638100729138</v>
+        <v>0.1283835769574636</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0232065159131191</v>
+        <v>0.02162097095828514</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>163</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2756625956.369152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4098964341.519654</v>
+        <v>4555282022.840587</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1347564642637917</v>
+        <v>0.1482678723624118</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04658050064474324</v>
+        <v>0.03138576694582643</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2049482149.636535</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2876709610.165217</v>
+        <v>3266548185.701269</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0864959725767844</v>
+        <v>0.09692467911305451</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0515604085730513</v>
+        <v>0.04596202792346784</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>145</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1438354833.773351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4102094380.441791</v>
+        <v>6053557424.076613</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1546446902848277</v>
+        <v>0.1196011121330446</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03269592341119498</v>
+        <v>0.03157857105283613</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2051047192.209993</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1523206430.028317</v>
+        <v>1709194839.616362</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1262202189696943</v>
+        <v>0.1316887070650818</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05269043588954737</v>
+        <v>0.03902903225043676</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>761603158.3189297</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2569372952.22236</v>
+        <v>2794034276.886827</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06353835552489803</v>
+        <v>0.08917532136548811</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04170342550666974</v>
+        <v>0.04691135817806332</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>129</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1284686425.055014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5042560753.216085</v>
+        <v>5017606694.391171</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1637824280744111</v>
+        <v>0.1737395338224913</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03412274630362994</v>
+        <v>0.02824475696656756</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>165</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2521280485.545555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1501012444.509614</v>
+        <v>1403984745.518601</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09459189629226204</v>
+        <v>0.07018066000131011</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03767614792508644</v>
+        <v>0.04831378982479375</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>750506249.1046849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3547655754.297384</v>
+        <v>3020898808.610364</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1080046118067609</v>
+        <v>0.08138471638381477</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03526457951915007</v>
+        <v>0.03510155784211357</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>172</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1773827822.974448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2524760623.558479</v>
+        <v>2548044004.581038</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1115204584191375</v>
+        <v>0.1572041833273861</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02897140022534439</v>
+        <v>0.02630395598950222</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>155</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1262380418.304064</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2423108638.094564</v>
+        <v>1567202619.382169</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1505545787103503</v>
+        <v>0.1224070321743511</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0377957146093158</v>
+        <v>0.02969283890998291</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1211554243.559077</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3934418928.069078</v>
+        <v>3448938474.407223</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08423186791968103</v>
+        <v>0.07844174310870126</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02383714297223522</v>
+        <v>0.02942664830292812</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1967209446.034974</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2038554096.791449</v>
+        <v>2226795230.223664</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1743001480757026</v>
+        <v>0.1226075752487473</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02732993507382469</v>
+        <v>0.02601713141855967</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1019277115.628739</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3582305491.803514</v>
+        <v>4572246456.282747</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08737935062903596</v>
+        <v>0.09045365378287602</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0442421804534618</v>
+        <v>0.05116560371777713</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>158</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1791152741.55152</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1669436233.011184</v>
+        <v>1806916245.921753</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1510626775534965</v>
+        <v>0.1766494861596673</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04012112944576414</v>
+        <v>0.03797051160547075</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>834718180.3897898</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3923129368.488621</v>
+        <v>5142442256.352762</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08560704412430506</v>
+        <v>0.1069026335543227</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02846541110423859</v>
+        <v>0.03243209655227393</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>97</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1961564679.907349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3948365000.060047</v>
+        <v>3153051473.074507</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1048186606477319</v>
+        <v>0.114247802836658</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02273933549425842</v>
+        <v>0.0280637351454664</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>103</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1974182461.342211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4467561036.89546</v>
+        <v>4258725599.869329</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1669895323568034</v>
+        <v>0.1415066488707304</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02332624948566736</v>
+        <v>0.02621503459059061</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>158</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2233780532.112117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2207983337.178529</v>
+        <v>1942245455.899865</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1474187292150491</v>
+        <v>0.1270112703141529</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03315588838361846</v>
+        <v>0.03817437032424767</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1103991679.775052</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1593393552.317458</v>
+        <v>1955181784.971297</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1051304271567221</v>
+        <v>0.08894380495893472</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0447996474201846</v>
+        <v>0.0383037802244583</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>796696840.7021958</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2963342916.363068</v>
+        <v>2585177175.008734</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1113571228600155</v>
+        <v>0.1371292481989624</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03584241646343975</v>
+        <v>0.05411926171093485</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>169</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1481671514.293858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1996322008.701289</v>
+        <v>1805373160.856859</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1570054968030035</v>
+        <v>0.1265523615629086</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02230943926685417</v>
+        <v>0.01798835491779422</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>998161031.4831077</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1427824153.119256</v>
+        <v>1254456050.392942</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1380267723493082</v>
+        <v>0.1854297384662338</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03411676267378842</v>
+        <v>0.03408453858417943</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>713912190.5448092</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2568363298.101424</v>
+        <v>2574917255.588231</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1696986917434263</v>
+        <v>0.1499810675623294</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03481960540233339</v>
+        <v>0.03229262204246882</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>180</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1284181636.858734</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3007704810.125975</v>
+        <v>2579918348.302033</v>
       </c>
       <c r="F89" t="n">
-        <v>0.126322395262972</v>
+        <v>0.1485932544318745</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0307384120597548</v>
+        <v>0.03818256072598695</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>154</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1503852442.620789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2128818587.890798</v>
+        <v>1371821537.976915</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1111394266773348</v>
+        <v>0.09682163110006206</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03931308621427713</v>
+        <v>0.03595780281311704</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1064409387.769248</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1552902598.9382</v>
+        <v>1619213890.253955</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1890045080836777</v>
+        <v>0.1910527475062596</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06175856143875726</v>
+        <v>0.03967958263345785</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>776451331.378265</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2885187687.62287</v>
+        <v>1865336093.386661</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06787547325390635</v>
+        <v>0.1001077457075317</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03756786852502622</v>
+        <v>0.03306721569375382</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>125</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1442593856.858269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4099788455.017723</v>
+        <v>3866537182.583892</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08747110652993392</v>
+        <v>0.09514872008044371</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05269426376896094</v>
+        <v>0.03537786004355928</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>137</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2049894221.701506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1681838221.830362</v>
+        <v>1807553290.904033</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1062008693840511</v>
+        <v>0.1380849872936286</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0329241970479905</v>
+        <v>0.03047596158733614</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>840919067.9329551</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2187497249.725343</v>
+        <v>2838375632.624907</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1223489700017182</v>
+        <v>0.1098576010569499</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03299817944258598</v>
+        <v>0.05029062108793391</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1093748683.705009</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1552403503.324726</v>
+        <v>1509066585.720069</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1331058943062729</v>
+        <v>0.1006988443726774</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04246799532301312</v>
+        <v>0.0402094219720209</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>776201786.4571085</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3518814566.024217</v>
+        <v>4797490355.051846</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1623400868161713</v>
+        <v>0.145159145690548</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02748515419414971</v>
+        <v>0.02582620674610303</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>147</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1759407300.708608</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3254922191.04619</v>
+        <v>3277428746.516798</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08383746717330416</v>
+        <v>0.09351937957393251</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0256067969546051</v>
+        <v>0.0198689383022401</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1627461097.557061</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2797207045.033687</v>
+        <v>3429037346.355412</v>
       </c>
       <c r="F99" t="n">
-        <v>0.147118894734476</v>
+        <v>0.1298151492039956</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0218925380141575</v>
+        <v>0.02930500771374017</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>142</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1398603493.779185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3280411735.893131</v>
+        <v>4258054076.882555</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1794592688454603</v>
+        <v>0.1418653301155513</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01984667387320053</v>
+        <v>0.01821259274490555</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1640205881.198264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2280158719.901577</v>
+        <v>3595577842.621766</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1926048038095861</v>
+        <v>0.1538016067095423</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04932517207117753</v>
+        <v>0.05088433229524895</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>186</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1140079353.883911</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_453.xlsx
+++ b/output/fit_clients/fit_round_453.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1679113048.132536</v>
+        <v>2329539309.865318</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08041697090709604</v>
+        <v>0.0788509121222935</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04503319911619563</v>
+        <v>0.03739815107850131</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2449990066.692229</v>
+        <v>1962166681.681456</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1499829243150606</v>
+        <v>0.1533423087677842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05013012505263681</v>
+        <v>0.03988003638930882</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4698154287.517417</v>
+        <v>3169016260.736912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.13470146628545</v>
+        <v>0.1302402713390065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02841791974734772</v>
+        <v>0.03473119883333601</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3818797563.431445</v>
+        <v>2904693266.883434</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08442906688186255</v>
+        <v>0.07867054401834367</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03893108390083673</v>
+        <v>0.03685568935027744</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2169435279.17258</v>
+        <v>2632574795.843499</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1361256314675431</v>
+        <v>0.1360564251615594</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03644951830600382</v>
+        <v>0.04217608581610283</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2669518138.207467</v>
+        <v>2278530317.223631</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09577705464167406</v>
+        <v>0.09128565200653432</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03207648483436767</v>
+        <v>0.03442424235869046</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3869421177.549434</v>
+        <v>2981914986.545289</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2047914903240712</v>
+        <v>0.1572960884842707</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02231166463518436</v>
+        <v>0.0209580347518904</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2229694506.884109</v>
+        <v>2273979193.832349</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1422008896072318</v>
+        <v>0.1628516011469313</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03272223508679316</v>
+        <v>0.02980408880237546</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5278336047.476046</v>
+        <v>4583225461.405191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1335401470201313</v>
+        <v>0.1822001374359848</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04877841338015118</v>
+        <v>0.04425875137733372</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2679874524.297135</v>
+        <v>3083638653.036182</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1285239307497212</v>
+        <v>0.1189169117992006</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03046116228587825</v>
+        <v>0.04173452576642692</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2542861959.339873</v>
+        <v>3097245465.518284</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1758665806342972</v>
+        <v>0.1437224152383153</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05167415267331644</v>
+        <v>0.04776846065472935</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3677233211.307539</v>
+        <v>3641230262.813431</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07511456568291472</v>
+        <v>0.07604814261596819</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02242589275331009</v>
+        <v>0.02277784511284354</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3320697143.887902</v>
+        <v>3165885132.852812</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1703711740769697</v>
+        <v>0.1508641509585673</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03188104924983385</v>
+        <v>0.04078410417768821</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1115539510.263034</v>
+        <v>1596667019.270378</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07329119627717799</v>
+        <v>0.07338474041547462</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03036224813439075</v>
+        <v>0.03169167448163687</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2626027428.191723</v>
+        <v>1876156651.627823</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1031957915887906</v>
+        <v>0.09310712124574269</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03954074137448252</v>
+        <v>0.03603738836802565</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4098619492.92917</v>
+        <v>5118351951.332646</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1460639637576844</v>
+        <v>0.1198648209073531</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03530978598293989</v>
+        <v>0.04148359506263873</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3408819447.262166</v>
+        <v>2451322434.116718</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1846703814950023</v>
+        <v>0.1761967538572992</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03261368007329749</v>
+        <v>0.02739328133980836</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1129962431.286154</v>
+        <v>1188751276.872702</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1638812697518794</v>
+        <v>0.1153881783281255</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02083819226346396</v>
+        <v>0.02149102453337859</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2740197622.46994</v>
+        <v>2229330286.176856</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1281782183975861</v>
+        <v>0.1333093520476527</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02150488828118206</v>
+        <v>0.03054277687013435</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2577442289.260515</v>
+        <v>2582473220.345891</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07880350690740442</v>
+        <v>0.07803247660602852</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04193132709514442</v>
+        <v>0.0458519850692632</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3377054410.995708</v>
+        <v>3017860072.275376</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0972875623441454</v>
+        <v>0.1383719173269635</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04885251735814238</v>
+        <v>0.03768620126502664</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1311284737.792584</v>
+        <v>1546853844.396775</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1278836167879138</v>
+        <v>0.1316863124258293</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05482214025374671</v>
+        <v>0.03767027135406133</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3117154064.543114</v>
+        <v>3956642203.668377</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1329526674087138</v>
+        <v>0.1209898530289936</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02941439388312397</v>
+        <v>0.02410701682654965</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>918079706.3387998</v>
+        <v>1305547937.647584</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1078927689053663</v>
+        <v>0.1114035953985044</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02923342917142718</v>
+        <v>0.02089288139361084</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>908592066.2300705</v>
+        <v>1146056903.153842</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08152071470499385</v>
+        <v>0.1080114971200976</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03104410527364944</v>
+        <v>0.03427101290485092</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4024321701.614495</v>
+        <v>3306215525.07268</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1025489880941615</v>
+        <v>0.1273259951669008</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01996009713261951</v>
+        <v>0.02341173988103794</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3274863289.642399</v>
+        <v>2421924569.527191</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1307535677720368</v>
+        <v>0.09503106055174153</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04920752809846395</v>
+        <v>0.04401782596997406</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5813653666.650726</v>
+        <v>4933698670.517601</v>
       </c>
       <c r="F29" t="n">
-        <v>0.118151233090009</v>
+        <v>0.1498831423504799</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04335884449524009</v>
+        <v>0.04162738961290841</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1590377197.913498</v>
+        <v>1926101134.10705</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1069466651878112</v>
+        <v>0.08447394877772424</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0397980669894988</v>
+        <v>0.0302961517189931</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1493931857.386365</v>
+        <v>1028354442.174179</v>
       </c>
       <c r="F31" t="n">
-        <v>0.102891569002528</v>
+        <v>0.09186021622936054</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03898620045795437</v>
+        <v>0.04596421664285252</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1291163860.947505</v>
+        <v>1851822970.995382</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1192349944389869</v>
+        <v>0.08581343390385784</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03131565827344369</v>
+        <v>0.03322345373695453</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2595453706.293588</v>
+        <v>2334452553.975307</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1512502986462053</v>
+        <v>0.2058035203354753</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0520618358887433</v>
+        <v>0.05587341056892597</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1079069800.941262</v>
+        <v>1427355793.982559</v>
       </c>
       <c r="F34" t="n">
-        <v>0.093718077101331</v>
+        <v>0.1090151309123604</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02256778056510308</v>
+        <v>0.02720229126481583</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1255302525.384776</v>
+        <v>973803271.7776299</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08364034162955801</v>
+        <v>0.08162583132449286</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03129512194165495</v>
+        <v>0.03023135490863601</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2930959843.840041</v>
+        <v>2087111073.608134</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1540739500982234</v>
+        <v>0.1124229715961422</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01947901789550492</v>
+        <v>0.01742533360035976</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2599741662.94255</v>
+        <v>2782887850.112109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1056820225460347</v>
+        <v>0.08686152173218456</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02631712685324988</v>
+        <v>0.04125690850008112</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1625253416.246346</v>
+        <v>1403085956.407236</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1169137555659717</v>
+        <v>0.07980096023226782</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03693163683788442</v>
+        <v>0.03112930733373807</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1621166462.879601</v>
+        <v>1867700451.74696</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1637043957667948</v>
+        <v>0.1851397240803807</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02677023472414822</v>
+        <v>0.03256976592949178</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1234505518.23043</v>
+        <v>1247351939.318579</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1223959984820778</v>
+        <v>0.116640934405958</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04801423028179006</v>
+        <v>0.038316735800536</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2307243812.195667</v>
+        <v>1765962522.628443</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1071374441846351</v>
+        <v>0.1246025247303683</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0309223982062946</v>
+        <v>0.02920782843493011</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4192650412.740264</v>
+        <v>3240526924.941357</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1036915362743831</v>
+        <v>0.09326814189286424</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04301580829320537</v>
+        <v>0.02977440281528721</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2946261142.073351</v>
+        <v>2057504004.97103</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1329782297911231</v>
+        <v>0.1818582601930963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02572521341182495</v>
+        <v>0.01877184104583889</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1558465896.934884</v>
+        <v>1880741459.514175</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09189803654846782</v>
+        <v>0.07348221050217459</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02660899680190389</v>
+        <v>0.03594469515180995</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2346187123.4031</v>
+        <v>2494816561.354136</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1867226145793267</v>
+        <v>0.1209572163464917</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03402141138521692</v>
+        <v>0.04674196776205183</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4170700771.670319</v>
+        <v>4605393116.56314</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1662104099673903</v>
+        <v>0.1520343714236147</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04713064723378024</v>
+        <v>0.03844047304622036</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3683600563.366198</v>
+        <v>3120543523.038337</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1640355974869856</v>
+        <v>0.1632290229029844</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04324445062268432</v>
+        <v>0.05651965259185484</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3988985431.46389</v>
+        <v>3949147945.064946</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09788992373759453</v>
+        <v>0.09409278412873223</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03536715212502025</v>
+        <v>0.03751147491799314</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1285969258.989523</v>
+        <v>1319673824.769391</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1505723411140319</v>
+        <v>0.1730290056683423</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04080247379840535</v>
+        <v>0.03035589202956317</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3362743037.870787</v>
+        <v>4174287579.449123</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1450602526132757</v>
+        <v>0.1442125853438822</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03540100277226459</v>
+        <v>0.03659970258553103</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1224614055.50656</v>
+        <v>1291219316.465726</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1360618482449731</v>
+        <v>0.1795478560063204</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05440944538176424</v>
+        <v>0.04996220515734014</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3211781162.111998</v>
+        <v>5230044419.916658</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09831445384885909</v>
+        <v>0.1123759842532384</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05414971276112523</v>
+        <v>0.05927215004299521</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2805635968.577299</v>
+        <v>3563455786.073218</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1605124943234795</v>
+        <v>0.1257309561025204</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02175445019975176</v>
+        <v>0.03006834997734093</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3058157137.836185</v>
+        <v>3529577435.806035</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1375667805759805</v>
+        <v>0.1021395037647804</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05103158444360421</v>
+        <v>0.04722506203050034</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4332427377.731293</v>
+        <v>4663777449.631351</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1828655429001448</v>
+        <v>0.1935693048939173</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02998362185880446</v>
+        <v>0.0296317368257066</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1864408215.061676</v>
+        <v>1383916602.475446</v>
       </c>
       <c r="F56" t="n">
-        <v>0.110859630325358</v>
+        <v>0.146942183405225</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04826642155215463</v>
+        <v>0.03624307315279455</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3486183780.354677</v>
+        <v>3377487428.020378</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1517210246522584</v>
+        <v>0.1689815958418567</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01972844723238398</v>
+        <v>0.02356098299062134</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1193388064.568536</v>
+        <v>1597258019.361316</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1891508889658587</v>
+        <v>0.1323374182485941</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03659147378306959</v>
+        <v>0.0352752161405026</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3276962198.863053</v>
+        <v>5172824402.411204</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09669354521774091</v>
+        <v>0.1140379691804364</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0444215994120048</v>
+        <v>0.04751715370634597</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3128206701.378062</v>
+        <v>2898980694.15769</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1475351609420681</v>
+        <v>0.1603282158306246</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02093328098193666</v>
+        <v>0.02702428372410435</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2834329531.457366</v>
+        <v>3165468856.312405</v>
       </c>
       <c r="F61" t="n">
-        <v>0.141430332042124</v>
+        <v>0.1266768161096071</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03088797390487458</v>
+        <v>0.02960079194688805</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2032484440.483762</v>
+        <v>1516722325.931329</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1465442114049865</v>
+        <v>0.173327395915703</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03513284653400386</v>
+        <v>0.03722435119628214</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5542490456.295624</v>
+        <v>5242225424.256677</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09695413272079732</v>
+        <v>0.07898518953873308</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03731633011988288</v>
+        <v>0.04176446204891249</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4958350569.659904</v>
+        <v>4010871088.692068</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1174269099348568</v>
+        <v>0.1402937147688461</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02865755789891385</v>
+        <v>0.02637145184639789</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3949324151.718408</v>
+        <v>5494780233.531098</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1283835769574636</v>
+        <v>0.1490046007648635</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02162097095828514</v>
+        <v>0.01952851832806316</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4555282022.840587</v>
+        <v>4575775527.459441</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1482678723624118</v>
+        <v>0.1497395548550001</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03138576694582643</v>
+        <v>0.03255899021748867</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3266548185.701269</v>
+        <v>2288101934.126506</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09692467911305451</v>
+        <v>0.06929591252134371</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04596202792346784</v>
+        <v>0.03216684580708948</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6053557424.076613</v>
+        <v>4293347052.3987</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1196011121330446</v>
+        <v>0.1366015495623061</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03157857105283613</v>
+        <v>0.04150949192157471</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1709194839.616362</v>
+        <v>2392299594.630404</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1316887070650818</v>
+        <v>0.1543083441868961</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03902903225043676</v>
+        <v>0.05182744099644224</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2794034276.886827</v>
+        <v>3710268621.445428</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08917532136548811</v>
+        <v>0.09305557518974664</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04691135817806332</v>
+        <v>0.04792204973898088</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5017606694.391171</v>
+        <v>5159782642.67782</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1737395338224913</v>
+        <v>0.1367766082979014</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02824475696656756</v>
+        <v>0.03209167901074766</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1403984745.518601</v>
+        <v>1699335029.782895</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07018066000131011</v>
+        <v>0.1032952523300422</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04831378982479375</v>
+        <v>0.05082674460143237</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3020898808.610364</v>
+        <v>2700689993.870078</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08138471638381477</v>
+        <v>0.1045652280917116</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03510155784211357</v>
+        <v>0.04478071650920477</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2548044004.581038</v>
+        <v>2880149612.390901</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1572041833273861</v>
+        <v>0.1568339497135454</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02630395598950222</v>
+        <v>0.03554476074367968</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1567202619.382169</v>
+        <v>2038359234.999532</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1224070321743511</v>
+        <v>0.1630828627708539</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02969283890998291</v>
+        <v>0.03461821528048584</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3448938474.407223</v>
+        <v>4309351379.844491</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07844174310870126</v>
+        <v>0.1216683945839787</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02942664830292812</v>
+        <v>0.03016684244628912</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2226795230.223664</v>
+        <v>1668840087.63856</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1226075752487473</v>
+        <v>0.1475546733254617</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02601713141855967</v>
+        <v>0.02703081360199584</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4572246456.282747</v>
+        <v>3290046082.961244</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09045365378287602</v>
+        <v>0.1049848277777084</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05116560371777713</v>
+        <v>0.04150667607969941</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1806916245.921753</v>
+        <v>1719640755.395401</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1766494861596673</v>
+        <v>0.1774035076612947</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03797051160547075</v>
+        <v>0.02706415072046871</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5142442256.352762</v>
+        <v>4517024205.844497</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1069026335543227</v>
+        <v>0.07773560084054328</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03243209655227393</v>
+        <v>0.02454877439802617</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3153051473.074507</v>
+        <v>3269632438.160568</v>
       </c>
       <c r="F81" t="n">
-        <v>0.114247802836658</v>
+        <v>0.1308576767423447</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0280637351454664</v>
+        <v>0.03169859286728498</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4258725599.869329</v>
+        <v>5005305271.823095</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1415066488707304</v>
+        <v>0.1526111367109574</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02621503459059061</v>
+        <v>0.0278404233496015</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1942245455.899865</v>
+        <v>2002750351.881141</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1270112703141529</v>
+        <v>0.1257813273068298</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03817437032424767</v>
+        <v>0.03180638427460399</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1955181784.971297</v>
+        <v>2073351314.544635</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08894380495893472</v>
+        <v>0.07458325134138313</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0383037802244583</v>
+        <v>0.03584454124855657</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2585177175.008734</v>
+        <v>3652435715.274096</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1371292481989624</v>
+        <v>0.1261386565769836</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05411926171093485</v>
+        <v>0.03699177224319544</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1805373160.856859</v>
+        <v>2772170511.938267</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1265523615629086</v>
+        <v>0.1486321443449584</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01798835491779422</v>
+        <v>0.02094869162257287</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1254456050.392942</v>
+        <v>1036740437.765265</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1854297384662338</v>
+        <v>0.1252176920294566</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03408453858417943</v>
+        <v>0.02938787151893614</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2574917255.588231</v>
+        <v>2753569949.877587</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1499810675623294</v>
+        <v>0.1572074932722645</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03229262204246882</v>
+        <v>0.02828759335298024</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2579918348.302033</v>
+        <v>3434102377.903327</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1485932544318745</v>
+        <v>0.1453937462517808</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03818256072598695</v>
+        <v>0.03941515285413964</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1371821537.976915</v>
+        <v>2134716489.288991</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09682163110006206</v>
+        <v>0.09766188109257426</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03595780281311704</v>
+        <v>0.03749009658800525</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1619213890.253955</v>
+        <v>1524733007.269676</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1910527475062596</v>
+        <v>0.1572990525801732</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03967958263345785</v>
+        <v>0.04253609968872126</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1865336093.386661</v>
+        <v>2363370439.520352</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1001077457075317</v>
+        <v>0.07499519499740935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03306721569375382</v>
+        <v>0.03253868017783158</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3866537182.583892</v>
+        <v>4803580838.961409</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09514872008044371</v>
+        <v>0.09949337589074521</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03537786004355928</v>
+        <v>0.03903123795018822</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1807553290.904033</v>
+        <v>1658220359.582958</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1380849872936286</v>
+        <v>0.1245966193173866</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03047596158733614</v>
+        <v>0.04089008798225813</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2838375632.624907</v>
+        <v>3258094602.473857</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1098576010569499</v>
+        <v>0.1031321455921633</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05029062108793391</v>
+        <v>0.04569333519835564</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1509066585.720069</v>
+        <v>2141650149.086134</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1006988443726774</v>
+        <v>0.09247343111551665</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0402094219720209</v>
+        <v>0.04260805010766957</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4797490355.051846</v>
+        <v>5233249015.170781</v>
       </c>
       <c r="F97" t="n">
-        <v>0.145159145690548</v>
+        <v>0.1364868357749974</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02582620674610303</v>
+        <v>0.02629025193173224</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3277428746.516798</v>
+        <v>2453633868.310659</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09351937957393251</v>
+        <v>0.1222361718782289</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0198689383022401</v>
+        <v>0.02322467079553463</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3429037346.355412</v>
+        <v>3013562342.555794</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1298151492039956</v>
+        <v>0.1202849190463979</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02930500771374017</v>
+        <v>0.02336970122258901</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4258054076.882555</v>
+        <v>4456671276.609562</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1418653301155513</v>
+        <v>0.1589547532450172</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01821259274490555</v>
+        <v>0.01954332366319311</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3595577842.621766</v>
+        <v>3451187446.132516</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1538016067095423</v>
+        <v>0.1360484800408416</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05088433229524895</v>
+        <v>0.04455210806338925</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_453.xlsx
+++ b/output/fit_clients/fit_round_453.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2329539309.865318</v>
+        <v>2208970924.724026</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0788509121222935</v>
+        <v>0.08216004300760066</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03739815107850131</v>
+        <v>0.03531043392715172</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1962166681.681456</v>
+        <v>2171823166.034098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1533423087677842</v>
+        <v>0.1286734235673748</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03988003638930882</v>
+        <v>0.03390550000519552</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3169016260.736912</v>
+        <v>4540781269.492584</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1302402713390065</v>
+        <v>0.120943076110728</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03473119883333601</v>
+        <v>0.02478228348561964</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>229</v>
+      </c>
+      <c r="J4" t="n">
+        <v>453</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2904693266.883434</v>
+        <v>2987103099.964342</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07867054401834367</v>
+        <v>0.08313725307802133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03685568935027744</v>
+        <v>0.03360764630719217</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>190</v>
+      </c>
+      <c r="J5" t="n">
+        <v>451</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2632574795.843499</v>
+        <v>1903982265.903106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1360564251615594</v>
+        <v>0.1237447447559247</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04217608581610283</v>
+        <v>0.04023541329510662</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2278530317.223631</v>
+        <v>3153877188.617388</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09128565200653432</v>
+        <v>0.07039829528793086</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03442424235869046</v>
+        <v>0.03370453892410144</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2981914986.545289</v>
+        <v>3594230588.314647</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1572960884842707</v>
+        <v>0.2134868707972285</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0209580347518904</v>
+        <v>0.02672021967804788</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>126</v>
+      </c>
+      <c r="J8" t="n">
+        <v>453</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2273979193.832349</v>
+        <v>2273263542.889923</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1628516011469313</v>
+        <v>0.1852226662295175</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02980408880237546</v>
+        <v>0.0249111528257744</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +781,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4583225461.405191</v>
+        <v>4912629290.237736</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1822001374359848</v>
+        <v>0.1876191880793449</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04425875137733372</v>
+        <v>0.05197075455540456</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>351</v>
+      </c>
+      <c r="J10" t="n">
+        <v>453</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +816,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3083638653.036182</v>
+        <v>3381967243.168752</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1189169117992006</v>
+        <v>0.1555831681652946</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04173452576642692</v>
+        <v>0.0478983358405743</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>188</v>
+      </c>
+      <c r="J11" t="n">
+        <v>450</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +851,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3097245465.518284</v>
+        <v>3003277032.342332</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1437224152383153</v>
+        <v>0.1783239990953471</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04776846065472935</v>
+        <v>0.04108364620994283</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +886,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3641230262.813431</v>
+        <v>3995112101.71583</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07604814261596819</v>
+        <v>0.06993379540551198</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02277784511284354</v>
+        <v>0.02557848278245773</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>235</v>
+      </c>
+      <c r="J13" t="n">
+        <v>453</v>
+      </c>
+      <c r="K13" t="n">
+        <v>35.21149383846932</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +923,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3165885132.852812</v>
+        <v>2499963748.013965</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1508641509585673</v>
+        <v>0.1426317984470695</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04078410417768821</v>
+        <v>0.03582784289754669</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>99</v>
+      </c>
+      <c r="J14" t="n">
+        <v>452</v>
+      </c>
+      <c r="K14" t="n">
+        <v>22.52072910467956</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1596667019.270378</v>
+        <v>1288350628.797488</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07338474041547462</v>
+        <v>0.06622542323882026</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03169167448163687</v>
+        <v>0.03498757626255195</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1876156651.627823</v>
+        <v>1813782895.130315</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09310712124574269</v>
+        <v>0.1114678303822604</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03603738836802565</v>
+        <v>0.03168028711408437</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5118351951.332646</v>
+        <v>4704536927.964538</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1198648209073531</v>
+        <v>0.1230063361277678</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04148359506263873</v>
+        <v>0.03468395509009417</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>221</v>
+      </c>
+      <c r="J17" t="n">
+        <v>452</v>
+      </c>
+      <c r="K17" t="n">
+        <v>33.82153202583245</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2451322434.116718</v>
+        <v>2961025792.797168</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1761967538572992</v>
+        <v>0.1508847415835135</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02739328133980836</v>
+        <v>0.03027739447301677</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>122</v>
+      </c>
+      <c r="J18" t="n">
+        <v>452</v>
+      </c>
+      <c r="K18" t="n">
+        <v>25.54741708307739</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1188751276.872702</v>
+        <v>1045111088.378451</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1153881783281255</v>
+        <v>0.1344766976399024</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02149102453337859</v>
+        <v>0.02595262742391318</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2229330286.176856</v>
+        <v>2327531181.416622</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1333093520476527</v>
+        <v>0.1402392385148787</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03054277687013435</v>
+        <v>0.02222837215155716</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2582473220.345891</v>
+        <v>1907189078.07351</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07803247660602852</v>
+        <v>0.07501636884933827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0458519850692632</v>
+        <v>0.03023564523269124</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3017860072.275376</v>
+        <v>3360144916.656017</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1383719173269635</v>
+        <v>0.1350674400552877</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03768620126502664</v>
+        <v>0.0547565363060158</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>449</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1546853844.396775</v>
+        <v>1207488872.688278</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1316863124258293</v>
+        <v>0.1855264631261868</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03767027135406133</v>
+        <v>0.04377569004537992</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3956642203.668377</v>
+        <v>4153907967.741817</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1209898530289936</v>
+        <v>0.09484214838638277</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02410701682654965</v>
+        <v>0.0327534934437682</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>143</v>
+      </c>
+      <c r="J24" t="n">
+        <v>453</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1305547937.647584</v>
+        <v>1089092464.63185</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1114035953985044</v>
+        <v>0.1198591518441055</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02089288139361084</v>
+        <v>0.02167456261574706</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1146056903.153842</v>
+        <v>1330951605.865165</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1080114971200976</v>
+        <v>0.08573739663523428</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03427101290485092</v>
+        <v>0.02455042775053812</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3306215525.07268</v>
+        <v>3215411910.340698</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1273259951669008</v>
+        <v>0.1475574699582767</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02341173988103794</v>
+        <v>0.0268712164055101</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>197</v>
+      </c>
+      <c r="J27" t="n">
+        <v>452</v>
+      </c>
+      <c r="K27" t="n">
+        <v>23.30824495100902</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2421924569.527191</v>
+        <v>2430436719.134293</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09503106055174153</v>
+        <v>0.1319031124416473</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04401782596997406</v>
+        <v>0.03179287244367581</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>109</v>
+      </c>
+      <c r="J28" t="n">
+        <v>452</v>
+      </c>
+      <c r="K28" t="n">
+        <v>21.29317895324631</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1452,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4933698670.517601</v>
+        <v>4762298989.659097</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1498831423504799</v>
+        <v>0.09624792654077957</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04162738961290841</v>
+        <v>0.03830992903208857</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>367</v>
+      </c>
+      <c r="J29" t="n">
+        <v>453</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1926101134.10705</v>
+        <v>2189131919.582799</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08447394877772424</v>
+        <v>0.09985027056072135</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0302961517189931</v>
+        <v>0.02709812163035648</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1028354442.174179</v>
+        <v>1128674675.529895</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09186021622936054</v>
+        <v>0.09141955287466423</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04596421664285252</v>
+        <v>0.03919127667020699</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1851822970.995382</v>
+        <v>1703017854.996092</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08581343390385784</v>
+        <v>0.09216997713058651</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03322345373695453</v>
+        <v>0.0366861330042846</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2334452553.975307</v>
+        <v>2663795929.12747</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2058035203354753</v>
+        <v>0.135809963805861</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05587341056892597</v>
+        <v>0.04380642399808177</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1427355793.982559</v>
+        <v>1263142619.463686</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1090151309123604</v>
+        <v>0.1129698672746831</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02720229126481583</v>
+        <v>0.02240858878345847</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>973803271.7776299</v>
+        <v>1304116790.859631</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08162583132449286</v>
+        <v>0.1077926623634384</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03023135490863601</v>
+        <v>0.03803678201618889</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2087111073.608134</v>
+        <v>2683742782.189199</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1124229715961422</v>
+        <v>0.145588081632601</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01742533360035976</v>
+        <v>0.01865327940531201</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2782887850.112109</v>
+        <v>2832194551.415429</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08686152173218456</v>
+        <v>0.1036261544508104</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04125690850008112</v>
+        <v>0.03540789222954408</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1403085956.407236</v>
+        <v>1444487088.322849</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07980096023226782</v>
+        <v>0.08918541656545191</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03112930733373807</v>
+        <v>0.02515494649662939</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1867700451.74696</v>
+        <v>2054081235.917642</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1851397240803807</v>
+        <v>0.1636585878478727</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03256976592949178</v>
+        <v>0.02629422556738394</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1247351939.318579</v>
+        <v>1137772658.630296</v>
       </c>
       <c r="F40" t="n">
-        <v>0.116640934405958</v>
+        <v>0.1570799674315258</v>
       </c>
       <c r="G40" t="n">
-        <v>0.038316735800536</v>
+        <v>0.05069372018211665</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1765962522.628443</v>
+        <v>2527084821.566619</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1246025247303683</v>
+        <v>0.1283955115025304</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02920782843493011</v>
+        <v>0.02886971014449055</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3240526924.941357</v>
+        <v>2788228503.966691</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09326814189286424</v>
+        <v>0.0900770225181526</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02977440281528721</v>
+        <v>0.0344904897765781</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>198</v>
+      </c>
+      <c r="J42" t="n">
+        <v>451</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2057504004.97103</v>
+        <v>2799451279.321149</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1818582601930963</v>
+        <v>0.1892428588088862</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01877184104583889</v>
+        <v>0.01972654385813809</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1880741459.514175</v>
+        <v>2101106849.343889</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07348221050217459</v>
+        <v>0.06453958444984934</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03594469515180995</v>
+        <v>0.0297984981055581</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2494816561.354136</v>
+        <v>2228441427.793822</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1209572163464917</v>
+        <v>0.1815740979374203</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04674196776205183</v>
+        <v>0.04335851003570156</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4605393116.56314</v>
+        <v>3458068594.88468</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1520343714236147</v>
+        <v>0.1488313928096677</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03844047304622036</v>
+        <v>0.0534669018270066</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>269</v>
+      </c>
+      <c r="J46" t="n">
+        <v>452</v>
+      </c>
+      <c r="K46" t="n">
+        <v>25.52660758195524</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3120543523.038337</v>
+        <v>4782156937.568079</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1632290229029844</v>
+        <v>0.1289899963483436</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05651965259185484</v>
+        <v>0.04629917998386655</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>204</v>
+      </c>
+      <c r="J47" t="n">
+        <v>453</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3949147945.064946</v>
+        <v>3196667740.933148</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09409278412873223</v>
+        <v>0.0769117483156226</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03751147491799314</v>
+        <v>0.03176624591789441</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>227</v>
+      </c>
+      <c r="J48" t="n">
+        <v>450</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1319673824.769391</v>
+        <v>1916965219.398805</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1730290056683423</v>
+        <v>0.1368792594641994</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03035589202956317</v>
+        <v>0.03535579097076547</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4174287579.449123</v>
+        <v>3217681794.3386</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1442125853438822</v>
+        <v>0.1427521604335316</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03659970258553103</v>
+        <v>0.0353958018505695</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>162</v>
+      </c>
+      <c r="J50" t="n">
+        <v>451</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1291219316.465726</v>
+        <v>1497145749.30422</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1795478560063204</v>
+        <v>0.1516495773781074</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04996220515734014</v>
+        <v>0.03555092829190019</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5230044419.916658</v>
+        <v>5206861894.300208</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1123759842532384</v>
+        <v>0.08443862981317511</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05927215004299521</v>
+        <v>0.03893211183072843</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>257</v>
+      </c>
+      <c r="J52" t="n">
+        <v>453</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3563455786.073218</v>
+        <v>2292479167.635017</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1257309561025204</v>
+        <v>0.172418430339207</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03006834997734093</v>
+        <v>0.02234983774995153</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>446</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2335,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3529577435.806035</v>
+        <v>4030336867.349527</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1021395037647804</v>
+        <v>0.116879192375207</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04722506203050034</v>
+        <v>0.03823706607710477</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>239</v>
+      </c>
+      <c r="J54" t="n">
+        <v>453</v>
+      </c>
+      <c r="K54" t="n">
+        <v>35.54253446482452</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4663777449.631351</v>
+        <v>4453695035.215325</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1935693048939173</v>
+        <v>0.1527165807230929</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0296317368257066</v>
+        <v>0.02051459127531236</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>225</v>
+      </c>
+      <c r="J55" t="n">
+        <v>452</v>
+      </c>
+      <c r="K55" t="n">
+        <v>34.57381479625798</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1383916602.475446</v>
+        <v>1743456192.052114</v>
       </c>
       <c r="F56" t="n">
-        <v>0.146942183405225</v>
+        <v>0.1079478316778334</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03624307315279455</v>
+        <v>0.03604979935203832</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3377487428.020378</v>
+        <v>3399941629.13044</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1689815958418567</v>
+        <v>0.1569777543305344</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02356098299062134</v>
+        <v>0.01833703853131467</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>196</v>
+      </c>
+      <c r="J57" t="n">
+        <v>452</v>
+      </c>
+      <c r="K57" t="n">
+        <v>26.49904776926805</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1597258019.361316</v>
+        <v>1154909068.882337</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1323374182485941</v>
+        <v>0.1929807572866755</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0352752161405026</v>
+        <v>0.03038207563058777</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5172824402.411204</v>
+        <v>4057018002.59963</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1140379691804364</v>
+        <v>0.1009338184598205</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04751715370634597</v>
+        <v>0.04116778805948834</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>221</v>
+      </c>
+      <c r="J59" t="n">
+        <v>453</v>
+      </c>
+      <c r="K59" t="n">
+        <v>37.08222228960924</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2898980694.15769</v>
+        <v>3546501250.386882</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1603282158306246</v>
+        <v>0.1258541914241686</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02702428372410435</v>
+        <v>0.02112518465910354</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>453</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3165468856.312405</v>
+        <v>2852095028.857587</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1266768161096071</v>
+        <v>0.1300271376520349</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02960079194688805</v>
+        <v>0.02802393903173059</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1516722325.931329</v>
+        <v>1886771637.711621</v>
       </c>
       <c r="F62" t="n">
-        <v>0.173327395915703</v>
+        <v>0.120925643340246</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03722435119628214</v>
+        <v>0.04648700907233504</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5242225424.256677</v>
+        <v>3519758124.450149</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07898518953873308</v>
+        <v>0.06901772675971149</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04176446204891249</v>
+        <v>0.03169628064837874</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>226</v>
+      </c>
+      <c r="J63" t="n">
+        <v>453</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4010871088.692068</v>
+        <v>4706910062.318765</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1402937147688461</v>
+        <v>0.1808814426522604</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02637145184639789</v>
+        <v>0.02498205886779512</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>227</v>
+      </c>
+      <c r="J64" t="n">
+        <v>452</v>
+      </c>
+      <c r="K64" t="n">
+        <v>33.90577608381021</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5494780233.531098</v>
+        <v>5139904389.349636</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1490046007648635</v>
+        <v>0.1650068346207284</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01952851832806316</v>
+        <v>0.0273589029485525</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>324</v>
+      </c>
+      <c r="J65" t="n">
+        <v>452</v>
+      </c>
+      <c r="K65" t="n">
+        <v>34.01991158482237</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4575775527.459441</v>
+        <v>3996295485.88322</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1497395548550001</v>
+        <v>0.1419877204454571</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03255899021748867</v>
+        <v>0.04857284557735517</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>223</v>
+      </c>
+      <c r="J66" t="n">
+        <v>453</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2288101934.126506</v>
+        <v>2475339773.153225</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06929591252134371</v>
+        <v>0.07268114521286811</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03216684580708948</v>
+        <v>0.0448277270321782</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4293347052.3987</v>
+        <v>5445570260.274049</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1366015495623061</v>
+        <v>0.1289944143409127</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04150949192157471</v>
+        <v>0.0478387752831404</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>246</v>
+      </c>
+      <c r="J68" t="n">
+        <v>453</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2392299594.630404</v>
+        <v>2236520166.356052</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1543083441868961</v>
+        <v>0.1111485289983631</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05182744099644224</v>
+        <v>0.05017315590349531</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3710268621.445428</v>
+        <v>2466692957.224688</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09305557518974664</v>
+        <v>0.07751704424284274</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04792204973898088</v>
+        <v>0.04183774622872327</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>66</v>
+      </c>
+      <c r="J70" t="n">
+        <v>450</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5159782642.67782</v>
+        <v>4206081043.02092</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1367766082979014</v>
+        <v>0.1746895518033987</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03209167901074766</v>
+        <v>0.03177098756572239</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>310</v>
+      </c>
+      <c r="J71" t="n">
+        <v>452</v>
+      </c>
+      <c r="K71" t="n">
+        <v>34.17629452036827</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1699335029.782895</v>
+        <v>1970605953.019397</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1032952523300422</v>
+        <v>0.07130038842123135</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05082674460143237</v>
+        <v>0.03633896350366513</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2700689993.870078</v>
+        <v>2865804127.912628</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1045652280917116</v>
+        <v>0.07974950387215105</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04478071650920477</v>
+        <v>0.03736145395240329</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2880149612.390901</v>
+        <v>3291875131.978008</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1568339497135454</v>
+        <v>0.1638741042931235</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03554476074367968</v>
+        <v>0.02343953989339223</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>130</v>
+      </c>
+      <c r="J74" t="n">
+        <v>453</v>
+      </c>
+      <c r="K74" t="n">
+        <v>35.31601841194887</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2038359234.999532</v>
+        <v>1885549543.624436</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1630828627708539</v>
+        <v>0.1382229686993648</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03461821528048584</v>
+        <v>0.02486227624406527</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4309351379.844491</v>
+        <v>4461313163.564226</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1216683945839787</v>
+        <v>0.0867048949892148</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03016684244628912</v>
+        <v>0.02798448829926342</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>216</v>
+      </c>
+      <c r="J76" t="n">
+        <v>453</v>
+      </c>
+      <c r="K76" t="n">
+        <v>35.01605380754273</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1668840087.63856</v>
+        <v>1407833395.542225</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1475546733254617</v>
+        <v>0.1661335975047794</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02703081360199584</v>
+        <v>0.02790374582546638</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3290046082.961244</v>
+        <v>4758836066.42158</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1049848277777084</v>
+        <v>0.1148031452430117</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04150667607969941</v>
+        <v>0.04238211643058164</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>225</v>
+      </c>
+      <c r="J78" t="n">
+        <v>453</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1719640755.395401</v>
+        <v>1756197568.105887</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1774035076612947</v>
+        <v>0.1388166961675004</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02706415072046871</v>
+        <v>0.03325332304903169</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4517024205.844497</v>
+        <v>5085625196.283564</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07773560084054328</v>
+        <v>0.08522077787997941</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02454877439802617</v>
+        <v>0.03144132801293266</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>221</v>
+      </c>
+      <c r="J80" t="n">
+        <v>452</v>
+      </c>
+      <c r="K80" t="n">
+        <v>32.27737730770258</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3269632438.160568</v>
+        <v>5038598882.161665</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1308576767423447</v>
+        <v>0.1244861200312767</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03169859286728498</v>
+        <v>0.03292188803345375</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>211</v>
+      </c>
+      <c r="J81" t="n">
+        <v>452</v>
+      </c>
+      <c r="K81" t="n">
+        <v>33.53558409189056</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5005305271.823095</v>
+        <v>4243574545.228636</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1526111367109574</v>
+        <v>0.1674715037046076</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0278404233496015</v>
+        <v>0.02678391683251056</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>301</v>
+      </c>
+      <c r="J82" t="n">
+        <v>453</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2002750351.881141</v>
+        <v>2127187863.482359</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1257813273068298</v>
+        <v>0.1394462757406568</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03180638427460399</v>
+        <v>0.04527092895094897</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2073351314.544635</v>
+        <v>1915630263.394517</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07458325134138313</v>
+        <v>0.08155620077033665</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03584454124855657</v>
+        <v>0.0427498565852347</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3652435715.274096</v>
+        <v>2781857841.626044</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1261386565769836</v>
+        <v>0.1274725608144825</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03699177224319544</v>
+        <v>0.05167895675727602</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="n">
+        <v>30.41046361008969</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2772170511.938267</v>
+        <v>1721210473.666433</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1486321443449584</v>
+        <v>0.1389516453332153</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02094869162257287</v>
+        <v>0.02028058865458953</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1036740437.765265</v>
+        <v>1365461843.455658</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1252176920294566</v>
+        <v>0.172754915197684</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02938787151893614</v>
+        <v>0.03082763972066969</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2753569949.877587</v>
+        <v>2294195566.60724</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1572074932722645</v>
+        <v>0.1365809645279274</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02828759335298024</v>
+        <v>0.03151400972135681</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3434102377.903327</v>
+        <v>2782121055.24756</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1453937462517808</v>
+        <v>0.1336633794959116</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03941515285413964</v>
+        <v>0.03334218124432012</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2134716489.288991</v>
+        <v>1337641860.826771</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09766188109257426</v>
+        <v>0.08528770287053052</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03749009658800525</v>
+        <v>0.04901213462109058</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1524733007.269676</v>
+        <v>1794099053.896603</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1572990525801732</v>
+        <v>0.195436601217113</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04253609968872126</v>
+        <v>0.03917765872875156</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2363370439.520352</v>
+        <v>2818842745.199033</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07499519499740935</v>
+        <v>0.09170432024071208</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03253868017783158</v>
+        <v>0.03681018980013617</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4803580838.961409</v>
+        <v>4909539674.147491</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09949337589074521</v>
+        <v>0.12765006663514</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03903123795018822</v>
+        <v>0.05344848646700649</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>217</v>
+      </c>
+      <c r="J93" t="n">
+        <v>453</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1658220359.582958</v>
+        <v>2512682024.585313</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1245966193173866</v>
+        <v>0.1210182131316165</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04089008798225813</v>
+        <v>0.03257233496054206</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3258094602.473857</v>
+        <v>2304334233.66478</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1031321455921633</v>
+        <v>0.1012773096010459</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04569333519835564</v>
+        <v>0.04089164408306403</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2141650149.086134</v>
+        <v>2177338124.926205</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09247343111551665</v>
+        <v>0.1349784887345797</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04260805010766957</v>
+        <v>0.03861820728353373</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5233249015.170781</v>
+        <v>5101526995.878848</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1364868357749974</v>
+        <v>0.1301326275343521</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02629025193173224</v>
+        <v>0.02692085835998553</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>236</v>
+      </c>
+      <c r="J97" t="n">
+        <v>453</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2453633868.310659</v>
+        <v>3304452613.104649</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1222361718782289</v>
+        <v>0.1068583454528622</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02322467079553463</v>
+        <v>0.02264070714012661</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>114</v>
+      </c>
+      <c r="J98" t="n">
+        <v>449</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3013562342.555794</v>
+        <v>2566577953.153945</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1202849190463979</v>
+        <v>0.1427263099514499</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02336970122258901</v>
+        <v>0.03347531992462522</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4456671276.609562</v>
+        <v>2937133826.493264</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1589547532450172</v>
+        <v>0.1383458713677821</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01954332366319311</v>
+        <v>0.02331271646726984</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>211</v>
+      </c>
+      <c r="J100" t="n">
+        <v>452</v>
+      </c>
+      <c r="K100" t="n">
+        <v>19.89887637338979</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3451187446.132516</v>
+        <v>2353556048.917578</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1360484800408416</v>
+        <v>0.159835954267637</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04455210806338925</v>
+        <v>0.03565604964845845</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
